--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T21:18:10+01:00</t>
+    <t>2023-11-15T00:00:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -492,6 +492,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>http://helsenorge.no/fhir/identifiers/uuid</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -791,7 +794,7 @@
     <t>ServiceRequest.category</t>
   </si>
   <si>
-    <t>Classification of service</t>
+    <t>Hvis category er brukt og det mangler code bør beskrivelse av bestilling være i note</t>
   </si>
   <si>
     <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
@@ -909,6 +912,131 @@
   </si>
   <si>
     <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:alternativeCode</t>
+  </si>
+  <si>
+    <t>alternativeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/additional-code}
+</t>
+  </si>
+  <si>
+    <t>Ekstensjon som muliggjør å legge til flere koder som alternative codes på serviceRequest.code</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:alternativeCode.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:alternativeCode.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:alternativeCode.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/additional-code</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:alternativeCode.value[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
@@ -1872,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1881,8 +2009,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.76171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.03515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.31640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1913,7 +2042,6 @@
     <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
@@ -3610,10 +3738,10 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>37</v>
@@ -3649,7 +3777,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3667,10 +3795,10 @@
         <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3681,10 +3809,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3710,13 +3838,13 @@
         <v>119</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3730,7 +3858,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3766,7 +3894,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3778,16 +3906,16 @@
         <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3798,10 +3926,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3824,16 +3952,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3883,7 +4011,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3895,16 +4023,16 @@
         <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3915,10 +4043,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3941,16 +4069,16 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4000,7 +4128,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4012,16 +4140,16 @@
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4032,10 +4160,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4058,16 +4186,16 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4117,7 +4245,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4132,13 +4260,13 @@
         <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4149,10 +4277,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4178,13 +4306,13 @@
         <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4234,7 +4362,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4249,13 +4377,13 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4266,14 +4394,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4292,16 +4420,16 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4351,7 +4479,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4363,16 +4491,16 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4383,14 +4511,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4409,16 +4537,16 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4468,7 +4596,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4480,16 +4608,16 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4500,14 +4628,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4529,16 +4657,16 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4587,7 +4715,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4602,13 +4730,13 @@
         <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4619,10 +4747,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4648,13 +4776,13 @@
         <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4665,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>37</v>
@@ -4683,10 +4811,10 @@
         <v>131</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4704,7 +4832,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>46</v>
@@ -4716,30 +4844,30 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4765,13 +4893,13 @@
         <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4782,7 +4910,7 @@
         <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>37</v>
@@ -4800,10 +4928,10 @@
         <v>131</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4821,7 +4949,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>46</v>
@@ -4833,19 +4961,19 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>37</v>
@@ -4853,10 +4981,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4882,16 +5010,16 @@
         <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4920,7 +5048,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>37</v>
@@ -4938,7 +5066,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4956,13 +5084,13 @@
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -4970,10 +5098,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4999,20 +5127,20 @@
         <v>69</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>37</v>
@@ -5036,10 +5164,10 @@
         <v>131</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>37</v>
@@ -5057,7 +5185,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5069,19 +5197,19 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>37</v>
@@ -5089,10 +5217,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5115,70 +5243,70 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5193,13 +5321,13 @@
         <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5210,18 +5338,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>46</v>
@@ -5239,13 +5367,13 @@
         <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5275,7 +5403,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5293,7 +5421,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5308,38 +5436,38 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5348,20 +5476,18 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5386,13 +5512,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5410,53 +5536,53 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>285</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5465,21 +5591,21 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5515,40 +5641,40 @@
         <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5559,21 +5685,23 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5582,20 +5710,18 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5644,42 +5770,42 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>310</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5791,21 +5917,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5820,14 +5946,12 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>95</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -5897,7 +6021,7 @@
         <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -5908,10 +6032,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5919,10 +6043,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5931,19 +6055,19 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5951,7 +6075,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>37</v>
@@ -5993,19 +6117,19 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -6025,10 +6149,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6048,20 +6172,18 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6071,7 +6193,7 @@
         <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>37</v>
@@ -6086,13 +6208,11 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>37</v>
@@ -6110,7 +6230,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6142,10 +6262,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6156,7 +6276,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -6168,18 +6288,20 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6227,13 +6349,13 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
@@ -6245,10 +6367,10 @@
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6259,10 +6381,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6282,19 +6404,23 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
       </c>
@@ -6342,7 +6468,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6351,19 +6477,19 @@
         <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6374,14 +6500,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6397,19 +6523,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>124</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6435,31 +6561,31 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6468,33 +6594,33 @@
         <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6511,25 +6637,23 @@
         <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6554,13 +6678,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6578,7 +6702,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6596,10 +6720,10 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>60</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -6610,10 +6734,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6621,7 +6745,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>46</v>
@@ -6636,20 +6760,18 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>139</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>37</v>
       </c>
@@ -6673,13 +6795,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6697,10 +6819,10 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>46</v>
@@ -6709,30 +6831,30 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>135</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6752,23 +6874,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>37</v>
       </c>
@@ -6780,7 +6898,7 @@
         <v>37</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>37</v>
@@ -6816,7 +6934,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6825,19 +6943,19 @@
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -6848,21 +6966,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6871,19 +6989,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6897,7 +7015,7 @@
         <v>37</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>37</v>
@@ -6921,40 +7039,40 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -6965,10 +7083,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6979,7 +7097,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6991,16 +7109,16 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7050,7 +7168,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7059,19 +7177,19 @@
         <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>58</v>
+        <v>360</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7082,10 +7200,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7108,16 +7226,16 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7128,7 +7246,7 @@
         <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>37</v>
@@ -7143,13 +7261,13 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7167,7 +7285,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7179,16 +7297,16 @@
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7199,10 +7317,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7225,16 +7343,16 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7284,7 +7402,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7302,10 +7420,10 @@
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7316,14 +7434,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7339,20 +7457,18 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7401,7 +7517,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7410,44 +7526,44 @@
         <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>355</v>
+        <v>67</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>357</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>359</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7456,18 +7572,20 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7504,54 +7622,54 @@
         <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>367</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7568,22 +7686,26 @@
         <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7607,13 +7729,13 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>372</v>
+        <v>132</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>373</v>
+        <v>133</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -7631,7 +7753,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7649,28 +7771,28 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>375</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7689,16 +7811,20 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7722,13 +7848,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -7746,7 +7872,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7761,31 +7887,31 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>146</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>385</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7804,18 +7930,20 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7827,7 +7955,7 @@
         <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>37</v>
@@ -7863,7 +7991,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7875,34 +8003,34 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>155</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>394</v>
+        <v>156</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>398</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7921,16 +8049,16 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>399</v>
+        <v>158</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>400</v>
+        <v>159</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7944,7 +8072,7 @@
         <v>37</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>37</v>
@@ -7956,11 +8084,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7978,7 +8108,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7993,16 +8123,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>405</v>
+        <v>165</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -8010,21 +8140,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>408</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -8036,16 +8166,16 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>409</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>168</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>169</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>412</v>
+        <v>170</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8095,31 +8225,31 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>171</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>413</v>
+        <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>414</v>
+        <v>173</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>415</v>
+        <v>174</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8127,10 +8257,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8141,7 +8271,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8153,16 +8283,16 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>178</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>419</v>
+        <v>179</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8188,13 +8318,13 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>420</v>
+        <v>37</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>37</v>
@@ -8212,31 +8342,31 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>180</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>423</v>
+        <v>183</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8244,10 +8374,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8258,7 +8388,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8270,16 +8400,16 @@
         <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>119</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>201</v>
+        <v>388</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8329,19 +8459,19 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -8350,10 +8480,10 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>427</v>
+        <v>60</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8361,21 +8491,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>37</v>
@@ -8387,16 +8517,16 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>137</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>431</v>
+        <v>202</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8422,13 +8552,13 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
@@ -8446,53 +8576,53 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>37</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -8504,17 +8634,15 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8563,42 +8691,42 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>37</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8609,7 +8737,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8618,20 +8746,18 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -8656,13 +8782,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8680,53 +8806,53 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>451</v>
+        <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8735,20 +8861,18 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8797,53 +8921,53 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>37</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8855,16 +8979,16 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8914,53 +9038,53 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>437</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>37</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8975,17 +9099,15 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
       </c>
@@ -9009,13 +9131,11 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9033,13 +9153,13 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>58</v>
@@ -9048,31 +9168,31 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>478</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9088,19 +9208,19 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9150,7 +9270,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9162,30 +9282,30 @@
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>295</v>
+        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>486</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9196,7 +9316,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9208,16 +9328,16 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9243,13 +9363,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>37</v>
+        <v>462</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9267,13 +9387,13 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>58</v>
@@ -9285,13 +9405,13 @@
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>295</v>
+        <v>464</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9299,10 +9419,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9322,19 +9442,19 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>495</v>
+        <v>202</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9384,7 +9504,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9396,21 +9516,1076 @@
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AM73" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:00:31+01:00</t>
+    <t>2023-11-15T00:11:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -930,25 +930,28 @@
 </t>
   </si>
   <si>
+    <t>Alternative codes på serviceRequest.code</t>
+  </si>
+  <si>
     <t>Ekstensjon som muliggjør å legge til flere koder som alternative codes på serviceRequest.code</t>
   </si>
   <si>
+    <t>ServiceRequest.code.extension:alternativeCode.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:alternativeCode.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
   </si>
   <si>
     <t>ServiceRequest.code.extension:alternativeCode.url</t>
@@ -5949,7 +5952,7 @@
         <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6032,10 +6035,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6061,13 +6064,13 @@
         <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6075,7 +6078,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>37</v>
@@ -6117,7 +6120,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>46</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6178,10 +6181,10 @@
         <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6230,7 +6233,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6262,10 +6265,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6288,19 +6291,19 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -6349,7 +6352,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6367,10 +6370,10 @@
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6381,10 +6384,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6410,16 +6413,16 @@
         <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6468,7 +6471,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6486,10 +6489,10 @@
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6500,14 +6503,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6529,13 +6532,13 @@
         <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6561,13 +6564,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6585,7 +6588,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6594,7 +6597,7 @@
         <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>59</v>
@@ -6603,7 +6606,7 @@
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>284</v>
@@ -6617,10 +6620,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6643,17 +6646,17 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6702,7 +6705,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6720,10 +6723,10 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -6734,10 +6737,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6760,13 +6763,13 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>202</v>
@@ -6819,7 +6822,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>46</v>
@@ -6834,27 +6837,27 @@
         <v>181</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6966,10 +6969,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7083,10 +7086,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7112,13 +7115,13 @@
         <v>119</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7168,7 +7171,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7177,7 +7180,7 @@
         <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>59</v>
@@ -7200,10 +7203,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7229,13 +7232,13 @@
         <v>62</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7246,7 +7249,7 @@
         <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>37</v>
@@ -7264,10 +7267,10 @@
         <v>142</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7285,7 +7288,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7317,10 +7320,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7346,13 +7349,13 @@
         <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7402,7 +7405,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7420,7 +7423,7 @@
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>115</v>
@@ -7434,10 +7437,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7549,10 +7552,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7666,10 +7669,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7785,10 +7788,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7904,10 +7907,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7933,7 +7936,7 @@
         <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>149</v>
@@ -8003,7 +8006,7 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -8023,10 +8026,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8140,10 +8143,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8257,10 +8260,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8374,10 +8377,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8403,13 +8406,13 @@
         <v>119</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8459,7 +8462,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8491,14 +8494,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8517,13 +8520,13 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>202</v>
@@ -8576,7 +8579,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8591,31 +8594,31 @@
         <v>181</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8634,13 +8637,13 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8691,7 +8694,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8706,27 +8709,27 @@
         <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8749,13 +8752,13 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8782,13 +8785,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8806,7 +8809,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8827,25 +8830,25 @@
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8864,13 +8867,13 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8921,7 +8924,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8936,31 +8939,31 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8979,16 +8982,16 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9038,7 +9041,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -9053,31 +9056,31 @@
         <v>181</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9099,13 +9102,13 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9135,7 +9138,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9153,7 +9156,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9168,16 +9171,16 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -9185,14 +9188,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9211,16 +9214,16 @@
         <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9270,7 +9273,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9285,16 +9288,16 @@
         <v>181</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9302,10 +9305,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9331,13 +9334,13 @@
         <v>137</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9363,13 +9366,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9387,7 +9390,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9405,13 +9408,13 @@
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9419,10 +9422,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9445,13 +9448,13 @@
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>202</v>
@@ -9504,7 +9507,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9525,10 +9528,10 @@
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9536,10 +9539,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9565,13 +9568,13 @@
         <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9597,13 +9600,13 @@
         <v>37</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>37</v>
@@ -9621,7 +9624,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9636,16 +9639,16 @@
         <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9653,10 +9656,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9679,16 +9682,16 @@
         <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9738,7 +9741,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9753,16 +9756,16 @@
         <v>181</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9770,10 +9773,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9796,13 +9799,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>202</v>
@@ -9855,7 +9858,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9870,13 +9873,13 @@
         <v>181</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -9887,14 +9890,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9913,16 +9916,16 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9972,7 +9975,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9987,13 +9990,13 @@
         <v>181</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10004,10 +10007,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10030,16 +10033,16 @@
         <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10089,7 +10092,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -10107,10 +10110,10 @@
         <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10121,14 +10124,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10150,16 +10153,16 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -10184,13 +10187,13 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>37</v>
@@ -10208,7 +10211,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10226,24 +10229,24 @@
         <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10266,16 +10269,16 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10325,7 +10328,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10340,27 +10343,27 @@
         <v>59</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10386,10 +10389,10 @@
         <v>119</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>258</v>
@@ -10442,7 +10445,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10460,10 +10463,10 @@
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10474,10 +10477,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10500,16 +10503,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10559,7 +10562,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10574,13 +10577,13 @@
         <v>181</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/identifiers/uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3741,46 +3738,46 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="T15" t="s" s="2">
+      <c r="U15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3798,10 +3795,10 @@
         <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3812,10 +3809,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3841,13 +3838,13 @@
         <v>119</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3861,43 +3858,43 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3909,16 +3906,16 @@
         <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3929,10 +3926,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3955,16 +3952,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4014,7 +4011,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -4026,16 +4023,16 @@
         <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -4046,10 +4043,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4072,16 +4069,16 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4131,7 +4128,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4143,16 +4140,16 @@
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4163,10 +4160,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4189,16 +4186,16 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4248,7 +4245,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4263,13 +4260,13 @@
         <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4280,10 +4277,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4309,13 +4306,13 @@
         <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4365,7 +4362,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4380,13 +4377,13 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4397,14 +4394,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4423,16 +4420,16 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4482,7 +4479,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4494,16 +4491,16 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4514,14 +4511,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4540,16 +4537,16 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4599,7 +4596,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4611,16 +4608,16 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4631,14 +4628,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4660,16 +4657,16 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4718,7 +4715,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4733,13 +4730,13 @@
         <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4779,13 +4776,13 @@
         <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4796,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>37</v>
@@ -4814,11 +4811,11 @@
         <v>131</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>46</v>
@@ -4847,30 +4844,30 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4896,13 +4893,13 @@
         <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4913,7 +4910,7 @@
         <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>37</v>
@@ -4931,11 +4928,11 @@
         <v>131</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4952,7 +4949,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>46</v>
@@ -4964,19 +4961,19 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>37</v>
@@ -4984,10 +4981,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5013,16 +5010,16 @@
         <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -5051,7 +5048,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>37</v>
@@ -5069,7 +5066,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -5087,13 +5084,13 @@
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -5101,10 +5098,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5130,20 +5127,20 @@
         <v>69</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>37</v>
@@ -5167,11 +5164,11 @@
         <v>131</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>37</v>
       </c>
@@ -5188,7 +5185,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5200,19 +5197,19 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>37</v>
@@ -5220,10 +5217,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5246,26 +5243,26 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="O28" t="s" s="2">
+      <c r="P28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="R28" t="s" s="2">
         <v>37</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5324,13 +5321,13 @@
         <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5341,14 +5338,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5370,13 +5367,13 @@
         <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5406,7 +5403,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5424,7 +5421,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5439,27 +5436,27 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5571,10 +5568,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5688,13 +5685,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>37</v>
@@ -5716,13 +5713,13 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5805,10 +5802,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5920,10 +5917,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5949,10 +5946,10 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6035,10 +6032,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6064,13 +6061,13 @@
         <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6078,49 +6075,49 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>46</v>
@@ -6152,10 +6149,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6181,10 +6178,10 @@
         <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6215,7 +6212,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>37</v>
@@ -6233,7 +6230,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6265,10 +6262,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6291,19 +6288,19 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -6352,7 +6349,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6370,10 +6367,10 @@
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6384,10 +6381,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6413,16 +6410,16 @@
         <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6471,7 +6468,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6489,10 +6486,10 @@
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6503,14 +6500,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6532,13 +6529,13 @@
         <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6564,14 +6561,14 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6597,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>59</v>
@@ -6606,24 +6603,24 @@
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6646,17 +6643,17 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6705,7 +6702,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6723,10 +6720,10 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -6737,10 +6734,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6763,16 +6760,16 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6822,7 +6819,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>46</v>
@@ -6834,30 +6831,30 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6969,10 +6966,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7086,10 +7083,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7115,13 +7112,13 @@
         <v>119</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7171,7 +7168,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7180,7 +7177,7 @@
         <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>59</v>
@@ -7203,10 +7200,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7232,13 +7229,13 @@
         <v>62</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7249,7 +7246,7 @@
         <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>37</v>
@@ -7267,28 +7264,28 @@
         <v>142</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7320,10 +7317,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7349,13 +7346,13 @@
         <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7405,7 +7402,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7423,7 +7420,7 @@
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>115</v>
@@ -7437,10 +7434,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7552,10 +7549,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7669,10 +7666,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7788,10 +7785,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7907,10 +7904,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7936,7 +7933,7 @@
         <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>149</v>
@@ -7958,43 +7955,43 @@
         <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -8006,16 +8003,16 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8026,10 +8023,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8055,13 +8052,13 @@
         <v>119</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8075,43 +8072,43 @@
         <v>37</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8129,10 +8126,10 @@
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8143,10 +8140,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8169,16 +8166,16 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8228,7 +8225,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8240,16 +8237,16 @@
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8260,10 +8257,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8286,16 +8283,16 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8345,7 +8342,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8357,16 +8354,16 @@
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8377,10 +8374,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8406,13 +8403,13 @@
         <v>119</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8462,7 +8459,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8494,14 +8491,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8520,16 +8517,16 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8579,7 +8576,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8591,34 +8588,34 @@
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8637,13 +8634,13 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8694,7 +8691,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8709,27 +8706,27 @@
         <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8752,13 +8749,13 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8785,14 +8782,14 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8830,25 +8827,25 @@
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8867,13 +8864,13 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8924,7 +8921,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8939,31 +8936,31 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8982,16 +8979,16 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9041,7 +9038,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -9053,34 +9050,34 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9102,13 +9099,13 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9138,7 +9135,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9156,7 +9153,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9171,16 +9168,16 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -9188,14 +9185,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9214,16 +9211,16 @@
         <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9273,7 +9270,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9285,19 +9282,19 @@
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9305,10 +9302,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9334,13 +9331,13 @@
         <v>137</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9366,14 +9363,14 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
       </c>
@@ -9390,7 +9387,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9408,13 +9405,13 @@
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9422,10 +9419,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9448,16 +9445,16 @@
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9507,7 +9504,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9519,7 +9516,7 @@
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
@@ -9528,10 +9525,10 @@
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9539,10 +9536,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9568,13 +9565,13 @@
         <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9600,14 +9597,14 @@
         <v>37</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9624,7 +9621,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9639,16 +9636,16 @@
         <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9656,10 +9653,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9682,16 +9679,16 @@
         <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9741,7 +9738,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9753,19 +9750,19 @@
         <v>58</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="AN66" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9773,10 +9770,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9799,16 +9796,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9858,7 +9855,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9870,16 +9867,16 @@
         <v>58</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -9890,14 +9887,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9916,16 +9913,16 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9975,7 +9972,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9987,16 +9984,16 @@
         <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10007,10 +10004,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10033,16 +10030,16 @@
         <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10092,7 +10089,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -10104,16 +10101,16 @@
         <v>58</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10124,14 +10121,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10153,16 +10150,16 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -10187,14 +10184,14 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>37</v>
       </c>
@@ -10211,7 +10208,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10229,24 +10226,24 @@
         <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10269,16 +10266,16 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10328,7 +10325,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10343,27 +10340,27 @@
         <v>59</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10389,13 +10386,13 @@
         <v>119</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10445,7 +10442,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10463,10 +10460,10 @@
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10477,10 +10474,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10503,16 +10500,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10562,7 +10559,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10574,16 +10571,16 @@
         <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -893,7 +893,13 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/ValueSet/serviceRequest-code-vs</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -909,134 +915,6 @@
   </si>
   <si>
     <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode</t>
-  </si>
-  <si>
-    <t>alternativeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/additional-code}
-</t>
-  </si>
-  <si>
-    <t>Alternative codes på serviceRequest.code</t>
-  </si>
-  <si>
-    <t>Ekstensjon som muliggjør å legge til flere koder som alternative codes på serviceRequest.code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/additional-code</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.value[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
@@ -1053,9 +931,6 @@
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codified order entry details which are based on order context.</t>
@@ -2000,7 +1875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2009,9 +1884,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.03515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.76171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.31640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -2032,7 +1906,7 @@
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="122.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
@@ -2042,6 +1916,7 @@
     <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
@@ -5399,11 +5274,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5436,38 +5313,38 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5476,18 +5353,20 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5512,13 +5391,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5536,53 +5415,53 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5591,21 +5470,21 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5641,40 +5520,40 @@
         <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5685,23 +5564,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5710,18 +5587,20 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5770,42 +5649,42 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>37</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5917,21 +5796,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5946,12 +5825,14 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -6021,7 +5902,7 @@
         <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -6032,10 +5913,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6043,10 +5924,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -6055,19 +5936,19 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6075,7 +5956,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>37</v>
@@ -6117,19 +5998,19 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -6149,10 +6030,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6172,18 +6053,20 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6193,7 +6076,7 @@
         <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>37</v>
@@ -6208,11 +6091,13 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>37</v>
@@ -6230,7 +6115,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6262,10 +6147,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6276,7 +6161,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -6288,20 +6173,18 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6349,13 +6232,13 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
@@ -6367,10 +6250,10 @@
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>319</v>
+        <v>115</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6381,10 +6264,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6404,23 +6287,19 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>120</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
       </c>
@@ -6468,7 +6347,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>122</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6477,19 +6356,19 @@
         <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>327</v>
+        <v>67</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6500,14 +6379,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6523,19 +6402,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6561,31 +6440,31 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6594,33 +6473,33 @@
         <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>60</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>285</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6637,23 +6516,25 @@
         <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6678,13 +6559,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6702,7 +6583,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6720,10 +6601,10 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -6734,10 +6615,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6745,7 +6626,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>46</v>
@@ -6760,18 +6641,20 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
       </c>
@@ -6795,13 +6678,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6819,10 +6702,10 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>145</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>46</v>
@@ -6831,30 +6714,30 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>146</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6874,19 +6757,23 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
       </c>
@@ -6898,7 +6785,7 @@
         <v>37</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>37</v>
@@ -6934,7 +6821,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6943,19 +6830,19 @@
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -6966,21 +6853,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6989,19 +6876,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7015,7 +6902,7 @@
         <v>37</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>37</v>
@@ -7039,40 +6926,40 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7083,10 +6970,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7097,7 +6984,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -7109,16 +6996,16 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>169</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7168,7 +7055,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7177,19 +7064,19 @@
         <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>360</v>
+        <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7200,10 +7087,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7226,16 +7113,16 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7246,7 +7133,7 @@
         <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>37</v>
@@ -7261,13 +7148,13 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7285,7 +7172,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7297,16 +7184,16 @@
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7317,10 +7204,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7343,16 +7230,16 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7402,7 +7289,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7420,10 +7307,10 @@
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7434,14 +7321,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7457,18 +7344,20 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>119</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>120</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7517,7 +7406,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>122</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7526,44 +7415,44 @@
         <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>37</v>
+        <v>357</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>37</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7572,20 +7461,18 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>95</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7622,54 +7509,54 @@
         <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>60</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>37</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7686,26 +7573,22 @@
         <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>127</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7729,13 +7612,13 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -7753,7 +7636,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7771,28 +7654,28 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>37</v>
+        <v>378</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7811,20 +7694,16 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>138</v>
+        <v>380</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7848,13 +7727,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -7872,7 +7751,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>145</v>
+        <v>377</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7887,31 +7766,31 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>37</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7930,20 +7809,18 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7955,7 +7832,7 @@
         <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>37</v>
@@ -7991,7 +7868,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>153</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -8003,34 +7880,34 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>180</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>154</v>
+        <v>394</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>155</v>
+        <v>395</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>37</v>
+        <v>399</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8049,16 +7926,16 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>157</v>
+        <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>158</v>
+        <v>401</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8072,7 +7949,7 @@
         <v>37</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>37</v>
@@ -8084,13 +7961,11 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -8108,7 +7983,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>161</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8123,16 +7998,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>163</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>164</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -8140,21 +8015,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -8166,16 +8041,16 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>167</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8225,31 +8100,31 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>172</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>173</v>
+        <v>416</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8257,10 +8132,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8271,7 +8146,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8283,16 +8158,16 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>176</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8318,13 +8193,13 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>37</v>
@@ -8342,31 +8217,31 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>181</v>
+        <v>423</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>182</v>
+        <v>424</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8374,10 +8249,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8388,7 +8263,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8400,16 +8275,16 @@
         <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>119</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8459,19 +8334,19 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -8480,10 +8355,10 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>60</v>
+        <v>428</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8491,21 +8366,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>37</v>
@@ -8517,16 +8392,16 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8552,13 +8427,13 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>37</v>
+        <v>433</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
@@ -8576,53 +8451,53 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -8634,15 +8509,17 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8691,42 +8568,42 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>409</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8737,7 +8614,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8746,18 +8623,20 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -8782,13 +8661,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8806,53 +8685,53 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8861,18 +8740,20 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8921,53 +8802,53 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>427</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8979,16 +8860,16 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9038,13 +8919,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>58</v>
@@ -9053,38 +8934,38 @@
         <v>180</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>437</v>
+        <v>37</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>438</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9099,15 +8980,17 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
       </c>
@@ -9131,11 +9014,13 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9153,13 +9038,13 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>58</v>
@@ -9168,31 +9053,31 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>37</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9208,19 +9093,19 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9270,7 +9155,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9282,30 +9167,30 @@
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>37</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9316,7 +9201,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9328,16 +9213,16 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>461</v>
+        <v>257</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9363,13 +9248,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>462</v>
+        <v>37</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>463</v>
+        <v>37</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9387,13 +9272,13 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>58</v>
@@ -9405,13 +9290,13 @@
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>296</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9419,10 +9304,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9442,19 +9327,19 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>201</v>
+        <v>496</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9504,7 +9389,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9519,1073 +9404,18 @@
         <v>180</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO73" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="498">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -520,10 +520,6 @@
   </si>
   <si>
     <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uuid-format:identifier value må være UUID. {value.matches('^[0-9a-fA-F]{8}-[0-9a-fA-F]{4}-[1-5][0-9a-fA-F]{3}-[89ab][0-9a-fA-F]{3}-[0-9a-fA-F]{12}$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -3781,16 +3777,16 @@
         <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3801,10 +3797,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3827,16 +3823,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3886,7 +3882,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3898,16 +3894,16 @@
         <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3918,10 +3914,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3944,16 +3940,16 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4003,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4015,16 +4011,16 @@
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4035,10 +4031,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4061,16 +4057,16 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4120,7 +4116,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4135,13 +4131,13 @@
         <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4152,10 +4148,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4181,13 +4177,13 @@
         <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4237,7 +4233,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4252,13 +4248,13 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4269,14 +4265,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4295,16 +4291,16 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4354,7 +4350,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4366,16 +4362,16 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4386,14 +4382,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4412,16 +4408,16 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4471,7 +4467,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4483,16 +4479,16 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4503,14 +4499,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4532,16 +4528,16 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4590,7 +4586,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4605,13 +4601,13 @@
         <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4622,10 +4618,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4651,13 +4647,13 @@
         <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4668,7 +4664,7 @@
         <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>37</v>
@@ -4686,11 +4682,11 @@
         <v>131</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>46</v>
@@ -4719,30 +4715,30 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4768,13 +4764,13 @@
         <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4785,7 +4781,7 @@
         <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>37</v>
@@ -4803,11 +4799,11 @@
         <v>131</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4824,7 +4820,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>46</v>
@@ -4836,19 +4832,19 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>37</v>
@@ -4856,10 +4852,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4885,16 +4881,16 @@
         <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4923,7 +4919,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>37</v>
@@ -4941,7 +4937,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4959,13 +4955,13 @@
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -4973,10 +4969,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5002,20 +4998,20 @@
         <v>69</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>37</v>
@@ -5039,11 +5035,11 @@
         <v>131</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>37</v>
       </c>
@@ -5060,7 +5056,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5072,19 +5068,19 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>37</v>
@@ -5092,10 +5088,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5118,26 +5114,26 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="O28" t="s" s="2">
+      <c r="P28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="R28" t="s" s="2">
         <v>37</v>
       </c>
@@ -5181,7 +5177,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5196,13 +5192,13 @@
         <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5213,14 +5209,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5242,13 +5238,13 @@
         <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5274,14 +5270,14 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
       </c>
@@ -5298,7 +5294,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5313,31 +5309,31 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5359,13 +5355,13 @@
         <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5391,14 +5387,14 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
       </c>
@@ -5415,7 +5411,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5424,7 +5420,7 @@
         <v>36</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>59</v>
@@ -5433,24 +5429,24 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5473,17 +5469,17 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5532,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5550,10 +5546,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5564,10 +5560,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5590,16 +5586,16 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5649,7 +5645,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>46</v>
@@ -5661,30 +5657,30 @@
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5796,10 +5792,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5913,10 +5909,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5942,13 +5938,13 @@
         <v>119</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5998,7 +5994,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -6007,7 +6003,7 @@
         <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>59</v>
@@ -6030,10 +6026,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6059,13 +6055,13 @@
         <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6076,7 +6072,7 @@
         <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>37</v>
@@ -6094,28 +6090,28 @@
         <v>142</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6147,10 +6143,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6176,13 +6172,13 @@
         <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6232,7 +6228,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6250,7 +6246,7 @@
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>115</v>
@@ -6264,10 +6260,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6379,10 +6375,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6496,10 +6492,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6615,10 +6611,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6734,10 +6730,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6763,7 +6759,7 @@
         <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>149</v>
@@ -6833,7 +6829,7 @@
         <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
@@ -6853,10 +6849,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6956,10 +6952,10 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -6970,10 +6966,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6996,16 +6992,16 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7055,7 +7051,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7067,16 +7063,16 @@
         <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7087,10 +7083,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7113,16 +7109,16 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7172,7 +7168,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7184,16 +7180,16 @@
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7204,10 +7200,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7233,13 +7229,13 @@
         <v>119</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7289,7 +7285,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7321,14 +7317,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7347,16 +7343,16 @@
         <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7406,7 +7402,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7418,34 +7414,34 @@
         <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7464,13 +7460,13 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7521,7 +7517,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7536,27 +7532,27 @@
         <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7579,13 +7575,13 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7612,14 +7608,14 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7636,7 +7632,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7657,25 +7653,25 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7694,13 +7690,13 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7751,7 +7747,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7766,31 +7762,31 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7809,16 +7805,16 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7868,7 +7864,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7880,34 +7876,34 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7929,13 +7925,13 @@
         <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7965,7 +7961,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7983,7 +7979,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7998,16 +7994,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -8015,14 +8011,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8041,16 +8037,16 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8100,7 +8096,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8112,19 +8108,19 @@
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM53" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8132,10 +8128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8161,13 +8157,13 @@
         <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8193,14 +8189,14 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>37</v>
       </c>
@@ -8217,7 +8213,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8235,13 +8231,13 @@
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AN54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8249,10 +8245,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8275,16 +8271,16 @@
         <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8334,7 +8330,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8346,7 +8342,7 @@
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -8355,10 +8351,10 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8366,10 +8362,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8395,13 +8391,13 @@
         <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8427,14 +8423,14 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
       </c>
@@ -8451,7 +8447,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8466,16 +8462,16 @@
         <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
@@ -8483,10 +8479,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8509,16 +8505,16 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8568,7 +8564,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8580,19 +8576,19 @@
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM57" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AN57" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>37</v>
@@ -8600,10 +8596,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8626,16 +8622,16 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8685,7 +8681,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8697,16 +8693,16 @@
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -8717,14 +8713,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8743,16 +8739,16 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8802,7 +8798,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8814,16 +8810,16 @@
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8834,10 +8830,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8860,16 +8856,16 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8919,7 +8915,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8931,16 +8927,16 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8951,14 +8947,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8980,16 +8976,16 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9014,14 +9010,14 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9056,24 +9052,24 @@
         <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9096,16 +9092,16 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9155,7 +9151,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9170,27 +9166,27 @@
         <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>487</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9216,13 +9212,13 @@
         <v>119</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9272,7 +9268,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9290,10 +9286,10 @@
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9304,10 +9300,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9330,16 +9326,16 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9389,7 +9385,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9401,16 +9397,16 @@
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T13:16:17+01:00</t>
+    <t>2023-12-12T23:44:27+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,6 +459,22 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:orderReceived</t>
+  </si>
+  <si>
+    <t>orderReceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/order-received}
+</t>
+  </si>
+  <si>
+    <t>Timestamp when order was received</t>
+  </si>
+  <si>
+    <t>Date and time when the order was received.</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -1986,7 +2002,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1997,7 +2013,7 @@
   <cols>
     <col min="1" max="1" width="39.76171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3099,43 +3115,41 @@
         <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3171,19 +3185,19 @@
         <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3204,7 +3218,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -3222,11 +3236,11 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -3235,24 +3249,26 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3288,19 +3304,19 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3312,30 +3328,30 @@
         <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3343,10 +3359,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3355,18 +3371,20 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3415,34 +3433,34 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -3454,14 +3472,14 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3473,17 +3491,15 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3520,31 +3536,31 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -3553,7 +3569,7 @@
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3564,46 +3580,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3627,52 +3641,52 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3683,10 +3697,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3703,25 +3717,25 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3746,13 +3760,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3770,7 +3784,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3788,10 +3802,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3802,10 +3816,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3813,7 +3827,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3828,19 +3842,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3853,7 +3867,7 @@
         <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>77</v>
@@ -3865,13 +3879,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3889,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3907,10 +3921,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3921,10 +3935,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3947,18 +3961,20 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3970,7 +3986,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -4006,7 +4022,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4024,10 +4040,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4038,10 +4054,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4049,7 +4065,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -4064,16 +4080,16 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4087,7 +4103,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4123,7 +4139,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4135,16 +4151,16 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4155,10 +4171,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4181,16 +4197,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4240,7 +4256,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4252,16 +4268,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4272,10 +4288,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4286,7 +4302,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4298,16 +4314,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4357,28 +4373,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4389,10 +4405,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4415,16 +4431,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4474,7 +4490,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4489,13 +4505,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4513,7 +4529,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4532,16 +4548,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4603,16 +4619,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4623,14 +4639,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4649,16 +4665,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4708,7 +4724,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4720,16 +4736,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4740,21 +4756,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4766,20 +4782,18 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4827,28 +4841,28 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4859,18 +4873,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4879,24 +4893,26 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4905,7 +4921,7 @@
         <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>77</v>
@@ -4920,13 +4936,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4944,10 +4960,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4956,30 +4972,30 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5005,13 +5021,13 @@
         <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5022,7 +5038,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -5037,13 +5053,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5061,7 +5077,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -5073,30 +5089,30 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5107,32 +5123,30 @@
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5141,7 +5155,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -5156,11 +5170,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5178,31 +5194,31 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>77</v>
@@ -5210,10 +5226,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5221,10 +5237,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5236,51 +5252,49 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="P28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5297,31 +5311,31 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5329,10 +5343,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5340,7 +5354,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -5349,31 +5363,29 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>77</v>
@@ -5394,13 +5406,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5418,7 +5430,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5430,19 +5442,19 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5450,14 +5462,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5470,28 +5482,32 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5511,13 +5527,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5535,7 +5551,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5550,38 +5566,38 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5593,16 +5609,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5628,77 +5644,77 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5710,18 +5726,18 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5745,13 +5761,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5769,16 +5785,16 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
@@ -5787,24 +5803,24 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5812,7 +5828,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5827,18 +5843,18 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5886,10 +5902,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -5898,30 +5914,30 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5929,7 +5945,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5941,18 +5957,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6001,53 +6019,53 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6059,17 +6077,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6106,31 +6122,31 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -6139,7 +6155,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6150,21 +6166,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6173,19 +6189,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>169</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6223,31 +6239,31 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>357</v>
+        <v>170</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6267,10 +6283,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6281,7 +6297,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6293,16 +6309,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6313,7 +6329,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -6328,13 +6344,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6352,7 +6368,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6361,7 +6377,7 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
@@ -6384,10 +6400,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6410,16 +6426,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6430,7 +6446,7 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>77</v>
@@ -6445,13 +6461,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6487,10 +6503,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6501,10 +6517,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6524,18 +6540,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>160</v>
+        <v>373</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6584,7 +6602,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>162</v>
+        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6593,19 +6611,19 @@
         <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6616,21 +6634,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6642,17 +6660,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6689,31 +6705,31 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6722,7 +6738,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6733,46 +6749,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6796,52 +6810,52 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6852,10 +6866,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6872,25 +6886,25 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6915,13 +6929,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6939,7 +6953,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6957,10 +6971,10 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6971,10 +6985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6997,19 +7011,19 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>183</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7022,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -7034,13 +7048,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7072,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7070,16 +7084,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7090,10 +7104,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7116,18 +7130,20 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7139,7 +7155,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -7175,7 +7191,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7187,16 +7203,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7207,10 +7223,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7233,16 +7249,16 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7256,7 +7272,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7292,7 +7308,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7304,16 +7320,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7324,10 +7340,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7350,16 +7366,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7409,7 +7425,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7421,16 +7437,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7441,10 +7457,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7467,16 +7483,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7526,7 +7542,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7538,16 +7554,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7565,7 +7581,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7584,16 +7600,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7643,7 +7659,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7655,34 +7671,34 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>100</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7701,15 +7717,17 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7758,7 +7776,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7770,34 +7788,34 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7816,13 +7834,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7849,13 +7867,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7873,7 +7891,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7888,31 +7906,31 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7931,13 +7949,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7964,13 +7982,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7988,7 +8006,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8003,31 +8021,31 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8046,17 +8064,15 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8105,7 +8121,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8117,34 +8133,34 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8163,16 +8179,16 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>433</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8198,11 +8214,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8220,7 +8238,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8232,41 +8250,41 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -8278,16 +8296,16 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>449</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8313,13 +8331,11 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8337,31 +8353,31 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8369,14 +8385,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8395,16 +8411,16 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8430,13 +8446,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8454,7 +8470,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8466,19 +8482,19 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>77</v>
@@ -8486,10 +8502,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8512,16 +8528,16 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>465</v>
+        <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>240</v>
+        <v>464</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8547,13 +8563,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8571,7 +8587,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8583,19 +8599,19 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>77</v>
@@ -8603,10 +8619,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8629,16 +8645,16 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>471</v>
+        <v>245</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8664,13 +8680,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8688,7 +8704,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8700,19 +8716,19 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>77</v>
@@ -8720,10 +8736,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8746,16 +8762,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>479</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8781,13 +8797,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8805,7 +8821,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8817,19 +8833,19 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>77</v>
@@ -8837,10 +8853,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8860,19 +8876,19 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8922,7 +8938,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8934,19 +8950,19 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -8954,14 +8970,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8980,16 +8996,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>498</v>
+        <v>245</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9039,7 +9055,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9051,16 +9067,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -9071,14 +9087,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>499</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9094,19 +9110,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9156,7 +9172,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9168,16 +9184,16 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9188,14 +9204,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9214,20 +9230,18 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>508</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>514</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9251,13 +9265,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>516</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9275,7 +9289,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9287,34 +9301,34 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>518</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9330,21 +9344,23 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>520</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>46</v>
+        <v>516</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9368,13 +9384,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9392,7 +9408,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9407,27 +9423,27 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9438,7 +9454,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9447,19 +9463,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9509,13 +9525,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9524,10 +9540,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>528</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>529</v>
@@ -9536,15 +9552,15 @@
         <v>77</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9555,7 +9571,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9564,10 +9580,10 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>531</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>532</v>
@@ -9576,7 +9592,7 @@
         <v>533</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>534</v>
+        <v>301</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9626,33 +9642,150 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="B66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AM65" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO65" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,6 +475,22 @@
   </si>
   <si>
     <t>Date and time when the order was received.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:henvisningsstatus</t>
+  </si>
+  <si>
+    <t>henvisningsstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/henvisningsstatus}
+</t>
+  </si>
+  <si>
+    <t>Status på henvisning</t>
+  </si>
+  <si>
+    <t>En utvidelse som representerer status på henvisning i henhold til HIS 1206:2018.</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2002,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2011,9 +2027,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.76171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.91796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3232,43 +3248,41 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3304,19 +3318,19 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3337,7 +3351,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3355,11 +3369,11 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -3368,24 +3382,26 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3421,19 +3437,19 @@
         <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3445,30 +3461,30 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3476,10 +3492,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3488,18 +3504,20 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3548,34 +3566,34 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3587,14 +3605,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3606,17 +3624,15 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3653,31 +3669,31 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3686,7 +3702,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3697,46 +3713,44 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3760,52 +3774,52 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3816,10 +3830,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3836,25 +3850,25 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3879,13 +3893,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3903,7 +3917,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3921,10 +3935,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3935,10 +3949,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3946,7 +3960,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3961,19 +3975,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3986,7 +4000,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3998,13 +4012,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -4022,7 +4036,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4040,10 +4054,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4054,10 +4068,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4080,18 +4094,20 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4103,7 +4119,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4139,7 +4155,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4157,10 +4173,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4171,10 +4187,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4182,7 +4198,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -4197,16 +4213,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4220,7 +4236,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4256,7 +4272,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4268,16 +4284,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4288,10 +4304,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4314,16 +4330,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4373,7 +4389,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4385,16 +4401,16 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4405,10 +4421,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4419,7 +4435,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4431,16 +4447,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4490,28 +4506,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4522,10 +4538,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4548,16 +4564,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4607,7 +4623,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4622,13 +4638,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4646,7 +4662,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4665,16 +4681,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4736,16 +4752,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4756,14 +4772,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4782,16 +4798,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4841,7 +4857,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4853,16 +4869,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4873,21 +4889,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4899,20 +4915,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4960,28 +4974,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4992,18 +5006,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -5012,24 +5026,26 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5038,7 +5054,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -5053,13 +5069,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5077,10 +5093,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -5089,30 +5105,30 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5138,13 +5154,13 @@
         <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5155,7 +5171,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -5170,13 +5186,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5194,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5206,30 +5222,30 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5237,35 +5253,33 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5274,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -5289,11 +5303,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5311,31 +5327,31 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5343,10 +5359,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5354,10 +5370,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5369,51 +5385,49 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5430,31 +5444,31 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>305</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5462,10 +5476,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5473,7 +5487,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5482,31 +5496,29 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q30" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
@@ -5527,13 +5539,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5551,7 +5563,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5563,19 +5575,19 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>77</v>
@@ -5583,14 +5595,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5603,28 +5615,32 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5644,13 +5660,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5668,7 +5684,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5683,38 +5699,38 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5726,16 +5742,16 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5761,77 +5777,77 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5843,18 +5859,18 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>342</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5878,13 +5894,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5902,16 +5918,16 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
@@ -5920,24 +5936,24 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5945,7 +5961,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5960,18 +5976,18 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6019,10 +6035,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -6031,30 +6047,30 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AN34" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6062,7 +6078,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -6074,18 +6090,20 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6134,53 +6152,53 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6192,17 +6210,15 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6239,31 +6255,31 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6288,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6283,21 +6299,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6306,19 +6322,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6356,31 +6372,31 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6400,10 +6416,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6414,7 +6430,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6426,16 +6442,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6446,7 +6462,7 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>77</v>
@@ -6461,13 +6477,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6485,7 +6501,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6494,7 +6510,7 @@
         <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
@@ -6517,10 +6533,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6543,16 +6559,16 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6563,7 +6579,7 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>77</v>
@@ -6578,13 +6594,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6620,10 +6636,10 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6634,10 +6650,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6657,18 +6673,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6717,7 +6735,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>381</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6726,19 +6744,19 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6749,21 +6767,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6775,17 +6793,15 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6822,31 +6838,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6855,7 +6871,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6866,46 +6882,44 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6929,52 +6943,52 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6985,10 +6999,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7005,25 +7019,25 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7048,13 +7062,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -7072,7 +7086,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7090,10 +7104,10 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7104,10 +7118,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7130,19 +7144,19 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>383</v>
+        <v>188</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7155,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -7167,13 +7181,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7191,7 +7205,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7203,16 +7217,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7223,10 +7237,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7249,18 +7263,20 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7272,7 +7288,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7308,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7320,16 +7336,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>389</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7340,10 +7356,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7366,16 +7382,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7389,7 +7405,7 @@
         <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>77</v>
@@ -7425,7 +7441,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7437,16 +7453,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7457,10 +7473,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7483,16 +7499,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7542,7 +7558,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7554,16 +7570,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7574,10 +7590,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7600,16 +7616,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>391</v>
+        <v>227</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7659,7 +7675,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>228</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7671,16 +7687,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7698,7 +7714,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7717,16 +7733,16 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7776,7 +7792,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7788,34 +7804,34 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7834,15 +7850,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7891,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7903,34 +7921,34 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7949,13 +7967,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7982,13 +8000,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -8006,7 +8024,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8021,31 +8039,31 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8064,13 +8082,13 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8097,13 +8115,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -8121,7 +8139,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8136,31 +8154,31 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8179,17 +8197,15 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8238,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8250,34 +8266,34 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8296,16 +8312,16 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>438</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8331,11 +8347,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8353,7 +8371,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8365,41 +8383,41 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8411,16 +8429,16 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>454</v>
+        <v>187</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8446,13 +8464,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8470,31 +8486,31 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>77</v>
@@ -8502,14 +8518,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8528,16 +8544,16 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>459</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8563,13 +8579,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8587,7 +8603,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8599,19 +8615,19 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>77</v>
@@ -8619,10 +8635,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8645,16 +8661,16 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>470</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>245</v>
+        <v>469</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8680,13 +8696,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>470</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8704,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8716,19 +8732,19 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>77</v>
@@ -8736,10 +8752,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8762,16 +8778,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>182</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>476</v>
+        <v>250</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8797,13 +8813,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8821,7 +8837,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8833,19 +8849,19 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>77</v>
@@ -8853,10 +8869,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8879,16 +8895,16 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>484</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8914,13 +8930,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8938,7 +8954,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8950,19 +8966,19 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -8970,10 +8986,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8993,19 +9009,19 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9055,7 +9071,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9067,19 +9083,19 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9087,14 +9103,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>499</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9113,16 +9129,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>503</v>
+        <v>250</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9172,7 +9188,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9184,16 +9200,16 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9204,14 +9220,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9227,19 +9243,19 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9289,7 +9305,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9301,16 +9317,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9321,14 +9337,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9347,20 +9363,18 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>182</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>519</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9384,13 +9398,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9408,7 +9422,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9420,34 +9434,34 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9463,21 +9477,23 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>525</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9501,13 +9517,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>526</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9525,7 +9541,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9540,27 +9556,27 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9571,7 +9587,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9580,19 +9596,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>530</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9642,13 +9658,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9657,10 +9673,10 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>534</v>
@@ -9669,15 +9685,15 @@
         <v>77</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>77</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9688,7 +9704,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9697,10 +9713,10 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>536</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>537</v>
@@ -9709,7 +9725,7 @@
         <v>538</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>539</v>
+        <v>306</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9759,33 +9775,150 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="B67" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO66" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -477,22 +477,6 @@
     <t>Date and time when the order was received.</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:henvisningsstatus</t>
-  </si>
-  <si>
-    <t>henvisningsstatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/henvisningsstatus}
-</t>
-  </si>
-  <si>
-    <t>Status på henvisning</t>
-  </si>
-  <si>
-    <t>En utvidelse som representerer status på henvisning i henhold til HIS 1206:2018.</t>
-  </si>
-  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -865,10 +849,10 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>Default status er active</t>
-  </si>
-  <si>
-    <t>Status active betyr at serviceRequest er sendt fra Helsenorge og status completed betyr at status er oppdatert fra behandler.</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
   </si>
   <si>
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
@@ -877,14 +861,7 @@
     <t>active</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-StatusActiveOrCompleted:status må være enten 'active' eller 'completed'. {value='active' or value='completed'}</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-extended-servicerequest-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -921,10 +898,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-IntentOrder:intent må være 'order'. {value='order'}</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -2018,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2027,9 +2000,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.76171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.91796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3248,41 +3221,43 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3318,19 +3293,19 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3351,7 +3326,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3369,11 +3344,11 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -3382,26 +3357,24 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3437,19 +3410,19 @@
         <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3461,30 +3434,30 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3492,11 +3465,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3504,20 +3477,18 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3566,34 +3537,34 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3605,14 +3576,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3624,15 +3595,17 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3669,31 +3642,31 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3702,7 +3675,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3713,44 +3686,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3774,52 +3749,52 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3830,10 +3805,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3850,25 +3825,25 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3893,13 +3868,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3917,7 +3892,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3935,10 +3910,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3949,10 +3924,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3960,7 +3935,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3975,19 +3950,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4000,7 +3975,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -4012,13 +3987,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -4036,7 +4011,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4054,10 +4029,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4068,10 +4043,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4094,20 +4069,18 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4119,7 +4092,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4155,7 +4128,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4173,10 +4146,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4187,10 +4160,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4198,7 +4171,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -4213,16 +4186,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4236,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4272,7 +4245,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4284,16 +4257,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4304,10 +4277,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4330,16 +4303,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4389,7 +4362,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4401,16 +4374,16 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4421,10 +4394,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4435,7 +4408,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4447,16 +4420,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4506,28 +4479,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4538,10 +4511,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4564,16 +4537,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4623,7 +4596,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4638,13 +4611,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4662,7 +4635,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4681,16 +4654,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4752,16 +4725,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4772,14 +4745,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4798,16 +4771,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4857,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4869,16 +4842,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4889,21 +4862,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4915,18 +4888,20 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4974,28 +4949,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5006,18 +4981,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -5026,26 +5001,24 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5054,7 +5027,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -5069,13 +5042,11 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5093,10 +5064,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -5108,27 +5079,27 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5154,13 +5125,13 @@
         <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5171,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -5186,31 +5157,31 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Z27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5222,30 +5193,30 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5253,33 +5224,35 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5288,7 +5261,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -5303,13 +5276,11 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5327,31 +5298,31 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5370,10 +5341,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5385,7 +5356,7 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>296</v>
@@ -5396,13 +5367,13 @@
       <c r="N29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="O29" t="s" s="2">
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5422,11 +5393,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5450,25 +5423,25 @@
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5476,10 +5449,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5487,7 +5460,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5496,74 +5469,76 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q30" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5575,19 +5550,19 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>77</v>
@@ -5595,14 +5570,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5615,76 +5590,72 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5699,38 +5670,38 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5742,16 +5713,16 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5777,77 +5748,77 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5859,18 +5830,18 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5894,13 +5865,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5918,16 +5889,16 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
@@ -5936,24 +5907,24 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5961,7 +5932,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5976,18 +5947,18 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="N34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6035,10 +6006,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -6047,30 +6018,30 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6078,7 +6049,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -6090,20 +6061,18 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>353</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6152,53 +6121,53 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6210,15 +6179,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6255,31 +6226,31 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6288,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6299,21 +6270,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6322,19 +6293,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6372,31 +6343,31 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6416,10 +6387,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6430,7 +6401,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6442,16 +6413,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6462,7 +6433,7 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>77</v>
@@ -6477,13 +6448,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6501,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6510,7 +6481,7 @@
         <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
@@ -6559,7 +6530,7 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>370</v>
@@ -6579,46 +6550,46 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6636,10 +6607,10 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6650,10 +6621,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6673,20 +6644,18 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6735,7 +6704,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6744,19 +6713,19 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6767,21 +6736,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6793,15 +6762,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6838,31 +6809,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6871,7 +6842,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6882,44 +6853,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6943,52 +6916,52 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6999,10 +6972,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7019,25 +6992,25 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7062,13 +7035,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -7086,7 +7059,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7104,10 +7077,10 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7118,10 +7091,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7144,19 +7117,19 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7169,7 +7142,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -7181,13 +7154,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7205,7 +7178,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7217,16 +7190,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7237,10 +7210,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7263,20 +7236,18 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7288,7 +7259,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7324,7 +7295,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7336,16 +7307,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>389</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7356,10 +7327,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7382,16 +7353,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7405,7 +7376,7 @@
         <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>77</v>
@@ -7441,7 +7412,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7453,16 +7424,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7473,10 +7444,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7499,16 +7470,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7558,7 +7529,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7570,16 +7541,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7590,10 +7561,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7616,16 +7587,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>225</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7675,7 +7646,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7687,16 +7658,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7707,14 +7678,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7733,16 +7704,16 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>396</v>
+        <v>245</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7792,7 +7763,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7804,34 +7775,34 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7850,17 +7821,15 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7909,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7921,34 +7890,34 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7967,13 +7936,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8000,13 +7969,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -8024,7 +7993,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8039,16 +8008,16 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>417</v>
@@ -8063,7 +8032,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8082,13 +8051,13 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8115,13 +8084,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -8154,31 +8123,31 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8197,15 +8166,17 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8266,34 +8237,34 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8312,16 +8283,16 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8347,13 +8318,11 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8371,7 +8340,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8383,41 +8352,41 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8429,16 +8398,16 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>187</v>
+        <v>451</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8464,11 +8433,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8486,31 +8457,31 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>77</v>
@@ -8518,14 +8489,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8544,16 +8515,16 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8579,13 +8550,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8603,7 +8574,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8615,10 +8586,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>464</v>
@@ -8627,7 +8598,7 @@
         <v>465</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>77</v>
@@ -8661,16 +8632,16 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>467</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>468</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>469</v>
+        <v>245</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8696,13 +8667,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8732,19 +8703,19 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>77</v>
@@ -8752,10 +8723,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8778,16 +8749,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8813,13 +8784,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8837,7 +8808,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8849,19 +8820,19 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>77</v>
@@ -8869,10 +8840,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8895,16 +8866,16 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>187</v>
+        <v>481</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8930,13 +8901,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8954,7 +8925,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8966,19 +8937,19 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -9009,7 +8980,7 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>489</v>
@@ -9021,7 +8992,7 @@
         <v>491</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>492</v>
+        <v>245</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9083,19 +9054,19 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9103,14 +9074,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9138,7 +9109,7 @@
         <v>499</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9188,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9200,16 +9171,16 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9220,14 +9191,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9243,7 +9214,7 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>505</v>
@@ -9305,7 +9276,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9317,16 +9288,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9337,14 +9308,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>512</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9363,18 +9334,20 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9398,13 +9371,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9422,7 +9395,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9434,34 +9407,34 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9477,23 +9450,21 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>521</v>
+        <v>46</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O64" t="s" s="2">
         <v>524</v>
       </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9517,13 +9488,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>526</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9541,7 +9512,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9556,27 +9527,27 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>517</v>
+        <v>337</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9587,7 +9558,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9596,19 +9567,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9658,13 +9629,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9673,27 +9644,27 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>533</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>535</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9704,7 +9675,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9713,19 +9684,19 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>533</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>306</v>
+        <v>536</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9775,150 +9746,33 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO67" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -849,10 +849,10 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
+    <t>Extended valueset for status</t>
+  </si>
+  <si>
+    <t>Status er extended med koder fra 9148.</t>
   </si>
   <si>
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -314,172 +314,211 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:no-ansiennitets-dato</t>
+  </si>
+  <si>
+    <t>no-ansiennitets-dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-ansiennitets-dato}
+</t>
+  </si>
+  <si>
+    <t>Ansiennitets dato</t>
+  </si>
+  <si>
+    <t>Seniority date is the first date a referral was received by specialist health</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ServiceRequest.extension:no-mottatt-dato</t>
+  </si>
+  <si>
+    <t>no-mottatt-dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-mottatt-dato}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>Mottatt dato</t>
+  </si>
+  <si>
+    <t>Date and time when the order was received.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:no-frist-for-helsehjelp</t>
+  </si>
+  <si>
+    <t>no-frist-for-helsehjelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-frist-for-helsehjelp}
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Dato for frist for helsehjelp</t>
+  </si>
+  <si>
+    <t>Dato for frist for helsehjelp.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:businessStatus</t>
+  </si>
+  <si>
+    <t>businessStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/businessstatus}
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
+    <t>Request Business Status</t>
+  </si>
+  <si>
+    <t>Business status of a request - including referals</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension:orderReceived</t>
-  </si>
-  <si>
-    <t>orderReceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/order-received}
-</t>
-  </si>
-  <si>
-    <t>Timestamp when order was received</t>
-  </si>
-  <si>
-    <t>Date and time when the order was received.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -487,6 +526,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -540,10 +582,19 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -677,15 +728,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -713,10 +756,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -780,9 +819,6 @@
     <t>Plan/proposal/order fulfilled by this request.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Request.basedOn</t>
   </si>
   <si>
@@ -849,10 +885,10 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>Extended valueset for status</t>
-  </si>
-  <si>
-    <t>Status er extended med koder fra 9148.</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
   </si>
   <si>
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
@@ -861,7 +897,10 @@
     <t>active</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/ValueSet/hn-extended-servicerequest-status</t>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -940,9 +979,6 @@
   </si>
   <si>
     <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>If missing, this task should be performed with normal priority</t>
@@ -1060,8 +1096,8 @@
     <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
   </si>
   <si>
-    <t>ele-1
-prr-1</t>
+    <t xml:space="preserve">prr-1
+</t>
   </si>
   <si>
     <t>NTE</t>
@@ -1135,8 +1171,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>ServiceRequest.subject.type</t>
@@ -1182,9 +1218,6 @@
     <t>Reference.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>ServiceRequest.subject.identifier.id</t>
   </si>
   <si>
@@ -1456,16 +1489,10 @@
     <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>A location type where services are delivered.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
@@ -1651,9 +1678,6 @@
   </si>
   <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1991,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2000,9 +2024,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.76171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2493,11 +2517,11 @@
         <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
@@ -2505,7 +2529,7 @@
         <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>77</v>
@@ -2516,10 +2540,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2542,16 +2566,16 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2601,7 +2625,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2610,11 +2634,11 @@
         <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
@@ -2622,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>77</v>
@@ -2633,10 +2657,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2659,16 +2683,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2694,31 +2718,31 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2727,11 +2751,11 @@
         <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>77</v>
@@ -2750,14 +2774,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2776,16 +2800,16 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2835,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2844,11 +2868,11 @@
         <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
@@ -2856,7 +2880,7 @@
         <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
@@ -2867,14 +2891,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2893,16 +2917,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2952,7 +2976,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2973,7 +2997,7 @@
         <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>77</v>
@@ -2984,14 +3008,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3010,17 +3034,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -3057,19 +3079,17 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -3078,10 +3098,10 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -3090,7 +3110,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -3101,13 +3121,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -3129,13 +3149,13 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3186,7 +3206,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3195,10 +3215,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -3218,46 +3238,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3293,19 +3311,19 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3314,10 +3332,10 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
@@ -3326,7 +3344,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3337,22 +3355,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3360,20 +3380,18 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3422,7 +3440,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3431,35 +3449,37 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3480,13 +3500,13 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3537,19 +3557,19 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -3558,7 +3578,7 @@
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3569,14 +3589,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3589,24 +3609,26 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3642,19 +3664,19 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3663,10 +3685,10 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3675,7 +3697,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3686,10 +3708,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3697,35 +3719,33 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3749,13 +3769,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3773,42 +3793,42 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3828,23 +3848,19 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3868,13 +3884,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3892,7 +3908,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3901,19 +3917,19 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3924,21 +3940,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3947,23 +3963,21 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3999,40 +4013,40 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4043,10 +4057,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4054,7 +4068,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -4063,24 +4077,26 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4092,7 +4108,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4104,13 +4120,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -4128,7 +4144,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4137,19 +4153,19 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4160,10 +4176,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4186,18 +4202,20 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4221,13 +4239,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4245,7 +4263,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4254,19 +4272,19 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4277,10 +4295,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4288,7 +4306,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4303,18 +4321,20 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4326,7 +4346,7 @@
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -4362,7 +4382,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4371,19 +4391,19 @@
         <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4394,10 +4414,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4405,10 +4425,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4420,16 +4440,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4443,7 +4463,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -4479,28 +4499,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4511,10 +4531,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4525,7 +4545,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4537,17 +4557,15 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4596,28 +4614,28 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4628,21 +4646,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4654,16 +4672,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4713,28 +4731,28 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4745,14 +4763,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4771,16 +4789,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4830,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4839,19 +4857,19 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4862,21 +4880,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4888,20 +4906,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4949,28 +4965,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4981,43 +4997,41 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5027,7 +5041,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -5042,11 +5056,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5064,75 +5080,73 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5142,7 +5156,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -5157,13 +5171,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5181,31 +5195,31 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>77</v>
@@ -5213,21 +5227,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5239,19 +5253,19 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5276,11 +5290,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5298,31 +5314,31 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5330,10 +5346,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5350,35 +5366,33 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>77</v>
@@ -5393,13 +5407,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5417,42 +5431,42 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5460,7 +5474,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5475,31 +5489,27 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5514,13 +5524,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5538,31 +5548,31 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>77</v>
@@ -5570,21 +5580,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5596,18 +5606,20 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5631,13 +5643,11 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5655,53 +5665,53 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5713,22 +5723,22 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="R32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5748,13 +5758,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>321</v>
+        <v>192</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5772,42 +5782,42 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5824,28 +5834,32 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5889,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5898,19 +5912,19 @@
         <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5921,18 +5935,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5947,16 +5961,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5982,13 +5996,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6006,53 +6020,53 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6061,18 +6075,20 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6097,13 +6113,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6121,53 +6137,53 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6176,21 +6192,21 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>352</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6226,40 +6242,40 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6270,10 +6286,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6281,10 +6297,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6296,17 +6312,15 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6355,42 +6369,42 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>100</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6410,20 +6424,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>362</v>
+        <v>178</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6433,7 +6445,7 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>77</v>
@@ -6448,13 +6460,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6472,7 +6484,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>368</v>
+        <v>180</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6481,10 +6493,10 @@
         <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6493,7 +6505,7 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6504,21 +6516,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6527,19 +6539,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>370</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>371</v>
+        <v>184</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6577,40 +6589,40 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6621,10 +6633,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6635,7 +6647,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6644,18 +6656,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6704,7 +6718,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6713,10 +6727,10 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6725,7 +6739,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6736,21 +6750,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6759,19 +6773,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6782,7 +6796,7 @@
         <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>77</v>
@@ -6797,44 +6811,44 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6842,7 +6856,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6853,10 +6867,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6873,26 +6887,24 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
+        <v>383</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6916,13 +6928,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6940,7 +6952,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6949,19 +6961,19 @@
         <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6972,10 +6984,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6995,23 +7007,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7035,13 +7043,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -7059,7 +7067,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7068,19 +7076,19 @@
         <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7091,21 +7099,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -7114,23 +7122,21 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7142,7 +7148,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -7166,40 +7172,40 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7210,10 +7216,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7230,24 +7236,26 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7271,13 +7279,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7295,7 +7303,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7304,19 +7312,19 @@
         <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7327,10 +7335,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7353,18 +7361,20 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7388,13 +7398,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7412,7 +7422,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7421,19 +7431,19 @@
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7444,10 +7454,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7470,18 +7480,20 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>220</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7493,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7529,7 +7541,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7538,19 +7550,19 @@
         <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7561,10 +7573,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7587,16 +7599,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
+        <v>219</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>388</v>
+        <v>220</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7610,7 +7622,7 @@
         <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>77</v>
@@ -7646,7 +7658,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7655,19 +7667,19 @@
         <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7678,14 +7690,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7704,17 +7716,15 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7763,7 +7773,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>390</v>
+        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7772,37 +7782,37 @@
         <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>230</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7821,15 +7831,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>234</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7878,7 +7890,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7887,33 +7899,33 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>239</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7936,15 +7948,17 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7969,13 +7983,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7993,7 +8007,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8002,11 +8016,11 @@
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8014,25 +8028,25 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8051,13 +8065,13 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8108,7 +8122,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8117,37 +8131,37 @@
         <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8166,17 +8180,15 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8225,7 +8237,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8234,37 +8246,37 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8283,17 +8295,15 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8318,11 +8328,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8340,7 +8352,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8349,44 +8361,44 @@
         <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8398,17 +8410,15 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8457,53 +8467,53 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8515,16 +8525,16 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8550,13 +8560,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8574,53 +8584,53 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>448</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8632,16 +8642,16 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>467</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>245</v>
+        <v>454</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8667,13 +8677,11 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8691,31 +8699,31 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>77</v>
@@ -8723,14 +8731,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8749,16 +8757,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>182</v>
+        <v>462</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8784,13 +8792,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8808,7 +8816,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8817,22 +8825,22 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>77</v>
@@ -8840,10 +8848,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8866,17 +8874,15 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8901,13 +8907,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8925,7 +8931,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8934,22 +8940,22 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -8957,10 +8963,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8980,20 +8986,18 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9042,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9051,22 +9055,22 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK60" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9074,14 +9078,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>496</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9097,19 +9101,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>497</v>
+        <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9135,13 +9139,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9159,7 +9163,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9168,22 +9172,22 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>77</v>
@@ -9191,10 +9195,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9217,16 +9221,16 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9276,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9285,22 +9289,22 @@
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>77</v>
@@ -9308,14 +9312,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9331,23 +9335,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>182</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9371,13 +9371,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>517</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9395,7 +9395,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9404,37 +9404,37 @@
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>520</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9453,16 +9453,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>46</v>
+        <v>507</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9512,7 +9512,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9521,33 +9521,33 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>337</v>
+        <v>511</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>527</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9558,7 +9558,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9570,16 +9570,16 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>514</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9629,28 +9629,28 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>337</v>
+        <v>518</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9661,14 +9661,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9684,21 +9684,23 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>533</v>
+        <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9722,13 +9724,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>526</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>527</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9746,7 +9748,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9755,24 +9757,371 @@
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM66" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO66" t="s" s="2">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,10 +444,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:no-ansiennitets-dato</t>
-  </si>
-  <si>
-    <t>no-ansiennitets-dato</t>
+    <t>ServiceRequest.extension:ansiennitetsDato</t>
+  </si>
+  <si>
+    <t>ansiennitetsDato</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-ansiennitets-dato}
@@ -464,10 +464,10 @@
 </t>
   </si>
   <si>
-    <t>ServiceRequest.extension:no-mottatt-dato</t>
-  </si>
-  <si>
-    <t>no-mottatt-dato</t>
+    <t>ServiceRequest.extension:mottattDato</t>
+  </si>
+  <si>
+    <t>mottattDato</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-mottatt-dato}
@@ -480,10 +480,10 @@
     <t>Date and time when the order was received.</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:no-frist-for-helsehjelp</t>
-  </si>
-  <si>
-    <t>no-frist-for-helsehjelp</t>
+    <t>ServiceRequest.extension:fristDatoForHelsehjelp</t>
+  </si>
+  <si>
+    <t>fristDatoForHelsehjelp</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-frist-for-helsehjelp}
@@ -2024,9 +2024,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.18359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,20 +499,36 @@
     <t>Dato for frist for helsehjelp.</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:businessStatus</t>
-  </si>
-  <si>
-    <t>businessStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/businessstatus}
+    <t>ServiceRequest.extension:fristDatoForVurdering</t>
+  </si>
+  <si>
+    <t>fristDatoForVurdering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-frist-for-vurdering}
 </t>
   </si>
   <si>
-    <t>Request Business Status</t>
-  </si>
-  <si>
-    <t>Business status of a request - including referals</t>
+    <t>Dato for frist for vurdering</t>
+  </si>
+  <si>
+    <t>Dato for frist for vurdering.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:statusReason</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/servicerequest-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Reason for the current status</t>
+  </si>
+  <si>
+    <t>Provides the rationale behind the current status (e.g., on-hold due to patient request).</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -1851,6 +1870,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2015,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2191,7 +2225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -2306,7 +2340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2423,7 +2457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2538,7 +2572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2655,7 +2689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2772,7 +2806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2889,7 +2923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -3006,7 +3040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3119,7 +3153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -3236,7 +3270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -3353,7 +3387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3470,7 +3504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -3488,7 +3522,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3587,48 +3621,46 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3676,7 +3708,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3685,7 +3717,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>137</v>
@@ -3697,7 +3729,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3706,20 +3738,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -3728,24 +3760,26 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3793,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3805,30 +3839,30 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3836,10 +3870,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3848,18 +3882,20 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3908,53 +3944,53 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3966,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>183</v>
@@ -3974,9 +4010,7 @@
       <c r="M17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4013,41 +4047,41 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
       </c>
@@ -4055,7 +4089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>187</v>
       </c>
@@ -4064,26 +4098,26 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>188</v>
@@ -4092,11 +4126,9 @@
         <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4120,66 +4152,66 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4196,25 +4228,25 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4239,13 +4271,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4263,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4281,10 +4313,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4293,12 +4325,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4306,7 +4338,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4321,19 +4353,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4346,7 +4378,7 @@
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -4358,13 +4390,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4382,7 +4414,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4400,10 +4432,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4412,12 +4444,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4440,18 +4472,20 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4463,7 +4497,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -4499,7 +4533,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4517,10 +4551,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4529,12 +4563,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4542,7 +4576,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>86</v>
@@ -4557,15 +4591,17 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4578,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4614,7 +4650,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4632,24 +4668,24 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4672,17 +4708,15 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4731,7 +4765,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4749,10 +4783,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4761,12 +4795,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4777,7 +4811,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4789,16 +4823,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4848,13 +4882,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4863,27 +4897,27 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4906,16 +4940,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4965,7 +4999,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4980,14 +5014,14 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4995,7 +5029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>253</v>
       </c>
@@ -5004,7 +5038,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5023,15 +5057,17 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5095,31 +5131,31 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5138,13 +5174,13 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5195,7 +5231,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5210,38 +5246,38 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5253,20 +5289,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5314,13 +5346,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5329,13 +5361,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5344,20 +5376,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -5366,24 +5398,26 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5392,7 +5426,7 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>77</v>
@@ -5407,13 +5441,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5431,10 +5465,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -5446,27 +5480,27 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5492,13 +5526,13 @@
         <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5509,7 +5543,7 @@
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5524,13 +5558,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5548,7 +5582,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -5563,27 +5597,27 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5591,35 +5625,33 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5628,7 +5660,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5643,11 +5675,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5665,13 +5699,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5680,27 +5714,27 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5708,10 +5742,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5723,101 +5757,101 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="P32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="R32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5825,7 +5859,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5834,31 +5868,27 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>77</v>
@@ -5879,13 +5909,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5903,7 +5933,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5915,34 +5945,34 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5955,28 +5985,32 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5996,13 +6030,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6020,7 +6054,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6035,38 +6069,38 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6078,16 +6112,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6113,77 +6147,77 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6195,18 +6229,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6230,13 +6264,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6254,16 +6288,16 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
@@ -6272,24 +6306,24 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6297,7 +6331,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6312,16 +6346,18 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6369,10 +6405,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
@@ -6384,27 +6420,27 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="B38" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6412,7 +6448,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -6424,16 +6460,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6484,10 +6520,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>180</v>
+        <v>361</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -6496,41 +6532,41 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>181</v>
+        <v>367</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6542,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>183</v>
@@ -6550,9 +6586,7 @@
       <c r="M39" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6589,41 +6623,41 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6631,23 +6665,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6656,19 +6690,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>168</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6706,54 +6740,54 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>191</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6764,7 +6798,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6776,16 +6810,16 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6796,7 +6830,7 @@
         <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>77</v>
@@ -6811,13 +6845,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6835,7 +6869,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6844,7 +6878,7 @@
         <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>98</v>
@@ -6865,12 +6899,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6893,16 +6927,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6913,7 +6947,7 @@
         <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>77</v>
@@ -6928,13 +6962,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6973,7 +7007,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6982,7 +7016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>386</v>
       </c>
@@ -7007,18 +7041,20 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7067,7 +7103,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7079,7 +7115,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -7088,7 +7124,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7097,23 +7133,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -7125,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>183</v>
@@ -7133,9 +7169,7 @@
       <c r="M44" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7172,41 +7206,41 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF44" t="s" s="2">
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7214,35 +7248,35 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>188</v>
@@ -7251,11 +7285,9 @@
         <v>189</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7279,52 +7311,52 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7333,12 +7365,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7355,25 +7387,25 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7398,13 +7430,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7440,10 +7472,10 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7452,12 +7484,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7480,19 +7512,19 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7505,7 +7537,7 @@
         <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7517,13 +7549,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7541,7 +7573,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7553,16 +7585,16 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7571,12 +7603,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7599,18 +7631,20 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7622,7 +7656,7 @@
         <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>77</v>
@@ -7658,7 +7692,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7670,16 +7704,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7688,12 +7722,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7716,15 +7750,17 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7737,7 +7773,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7773,7 +7809,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7791,10 +7827,10 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7803,12 +7839,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7831,17 +7867,15 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7890,7 +7924,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7908,10 +7942,10 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7920,12 +7954,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7948,16 +7982,16 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>239</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>240</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8007,7 +8041,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8025,10 +8059,10 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8037,7 +8071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>401</v>
       </c>
@@ -8046,7 +8080,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8065,15 +8099,17 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8122,7 +8158,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8137,31 +8173,31 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8180,13 +8216,13 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8237,7 +8273,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8252,31 +8288,31 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8295,13 +8331,13 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8328,13 +8364,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8352,7 +8388,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8367,31 +8403,31 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8410,13 +8446,13 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8443,13 +8479,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8467,7 +8503,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8482,31 +8518,31 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8525,17 +8561,15 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8584,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8599,31 +8633,31 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8642,16 +8676,16 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8677,11 +8711,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8699,7 +8735,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8714,38 +8750,38 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8757,16 +8793,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>462</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8792,13 +8828,11 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8816,13 +8850,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8831,31 +8865,31 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8874,15 +8908,17 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8907,13 +8943,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8931,7 +8967,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8946,27 +8982,27 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8989,13 +9025,13 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9022,13 +9058,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -9046,7 +9082,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9067,21 +9103,21 @@
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9104,17 +9140,15 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>198</v>
+        <v>481</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N61" t="s" s="2">
         <v>482</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9139,13 +9173,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9163,7 +9197,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9178,27 +9212,27 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9221,16 +9255,16 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>490</v>
+        <v>203</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9256,13 +9290,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9280,7 +9314,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9295,27 +9329,27 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="B63" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9335,18 +9369,20 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9395,7 +9431,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9410,31 +9446,31 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="B64" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9453,17 +9489,15 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9512,7 +9546,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9527,13 +9561,13 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9542,16 +9576,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9567,19 +9601,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9629,7 +9663,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9644,31 +9678,31 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM65" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="B66" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9687,20 +9721,18 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>198</v>
+        <v>519</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9724,13 +9756,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>526</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>527</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9748,7 +9780,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9766,28 +9798,28 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>529</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>77</v>
+        <v>526</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9803,19 +9835,23 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>531</v>
+        <v>203</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>46</v>
+        <v>527</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9839,13 +9875,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9863,7 +9899,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9878,27 +9914,27 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO67" t="s" s="2">
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
         <v>535</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="B68" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9909,7 +9945,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9918,16 +9954,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>536</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9978,13 +10014,13 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
@@ -9993,10 +10029,10 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>539</v>
@@ -10005,15 +10041,15 @@
         <v>77</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10024,7 +10060,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -10033,10 +10069,10 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>542</v>
@@ -10044,9 +10080,7 @@
       <c r="M69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N69" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -10095,13 +10129,13 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
@@ -10110,22 +10144,157 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="B70" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AM69" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO70">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI69">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -509,10 +509,10 @@
 </t>
   </si>
   <si>
-    <t>Dato for frist for vurdering</t>
-  </si>
-  <si>
-    <t>Dato for frist for vurdering.</t>
+    <t>Vurdert dato</t>
+  </si>
+  <si>
+    <t>Brukes når forespørsel er vurdert og/eller henvisning er avvist/avsluttet.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:statusReason</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -509,10 +509,16 @@
 </t>
   </si>
   <si>
-    <t>Vurdert dato</t>
-  </si>
-  <si>
-    <t>Brukes når forespørsel er vurdert og/eller henvisning er avvist/avsluttet.</t>
+    <t>Dato for frist for vurdering</t>
+  </si>
+  <si>
+    <t>Dato for frist for vurdering.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:vurdertDato</t>
+  </si>
+  <si>
+    <t>vurdertDato</t>
   </si>
   <si>
     <t>ServiceRequest.extension:statusReason</t>
@@ -2049,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3642,7 +3648,7 @@
         <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>77</v>
@@ -3651,13 +3657,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3740,46 +3746,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3836,7 +3840,7 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -3848,7 +3852,7 @@
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3859,18 +3863,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3879,24 +3883,26 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3956,30 +3962,30 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3987,10 +3993,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3999,18 +4005,20 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4059,53 +4067,53 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -4117,17 +4125,15 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4164,31 +4170,31 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -4197,7 +4203,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4208,46 +4214,44 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4271,52 +4275,52 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4327,10 +4331,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4347,25 +4351,25 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4390,13 +4394,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4414,7 +4418,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4432,10 +4436,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4446,10 +4450,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4457,7 +4461,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -4472,19 +4476,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4497,7 +4501,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -4509,13 +4513,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4533,7 +4537,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4551,10 +4555,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4565,10 +4569,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4591,18 +4595,20 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4650,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4668,10 +4674,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4682,10 +4688,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4693,7 +4699,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -4708,15 +4714,17 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4729,7 +4737,7 @@
         <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -4765,7 +4773,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4783,10 +4791,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4797,10 +4805,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4823,17 +4831,15 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4882,7 +4888,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4900,10 +4906,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4914,10 +4920,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4928,7 +4934,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4940,16 +4946,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4999,13 +5005,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -5014,13 +5020,13 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5031,10 +5037,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5057,16 +5063,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5116,7 +5122,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5131,13 +5137,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5148,14 +5154,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5174,15 +5180,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5231,7 +5239,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5246,13 +5254,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5263,14 +5271,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5289,13 +5297,13 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5346,7 +5354,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5361,13 +5369,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5378,21 +5386,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5404,20 +5412,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5465,13 +5469,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5480,13 +5484,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5497,18 +5501,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5517,24 +5521,26 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5558,13 +5564,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5582,10 +5588,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -5597,27 +5603,27 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5643,13 +5649,13 @@
         <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5660,7 +5666,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5675,13 +5681,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5699,7 +5705,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -5714,27 +5720,27 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5742,35 +5748,33 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5794,11 +5798,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5816,13 +5822,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5831,16 +5837,16 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>77</v>
@@ -5848,10 +5854,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5859,10 +5865,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5874,90 +5880,90 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="Z33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>77</v>
@@ -5965,10 +5971,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5976,7 +5982,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5985,31 +5991,27 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>77</v>
@@ -6030,13 +6032,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6054,7 +6056,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6066,19 +6068,19 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>77</v>
@@ -6086,14 +6088,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6106,28 +6108,32 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6147,13 +6153,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6171,7 +6177,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -6186,38 +6192,38 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6229,16 +6235,16 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6264,13 +6270,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6288,53 +6294,53 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6346,18 +6352,18 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6381,13 +6387,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6405,16 +6411,16 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>98</v>
@@ -6423,24 +6429,24 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6448,7 +6454,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -6463,16 +6469,18 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6520,10 +6528,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -6535,27 +6543,27 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6563,7 +6571,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>86</v>
@@ -6575,16 +6583,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6635,10 +6643,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>86</v>
@@ -6647,41 +6655,41 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6693,17 +6701,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6740,31 +6746,31 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6779,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6784,21 +6790,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6807,19 +6813,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>190</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>191</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6857,31 +6863,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>376</v>
+        <v>193</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6890,7 +6896,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6901,10 +6907,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6915,7 +6921,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6927,16 +6933,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6947,7 +6953,7 @@
         <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>77</v>
@@ -6962,13 +6968,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6986,7 +6992,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6995,7 +7001,7 @@
         <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>98</v>
@@ -7018,10 +7024,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7044,16 +7050,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7064,7 +7070,7 @@
         <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>77</v>
@@ -7079,13 +7085,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -7103,7 +7109,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7124,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7135,10 +7141,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7158,18 +7164,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7218,7 +7226,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7230,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -7239,7 +7247,7 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7250,21 +7258,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7276,17 +7284,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7323,31 +7329,31 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7356,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7367,46 +7373,44 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7430,52 +7434,52 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7486,10 +7490,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7506,25 +7510,25 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7549,13 +7553,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7573,7 +7577,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7591,10 +7595,10 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7605,10 +7609,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7631,19 +7635,19 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7656,7 +7660,7 @@
         <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>77</v>
@@ -7668,13 +7672,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7692,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7704,16 +7708,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7724,10 +7728,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7750,18 +7754,20 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>223</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7773,7 +7779,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7809,7 +7815,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7821,16 +7827,16 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>399</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7841,10 +7847,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7867,15 +7873,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7888,7 +7896,7 @@
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7924,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7942,10 +7950,10 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7956,10 +7964,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7982,17 +7990,15 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -8041,7 +8047,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8059,10 +8065,10 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8073,10 +8079,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8099,16 +8105,16 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>241</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
+        <v>242</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>404</v>
+        <v>243</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8158,7 +8164,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8176,10 +8182,10 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8190,14 +8196,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8216,15 +8222,17 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8273,7 +8281,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8288,31 +8296,31 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>413</v>
+        <v>129</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8331,13 +8339,13 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8388,7 +8396,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8403,31 +8411,31 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8446,13 +8454,13 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8479,13 +8487,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8503,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8518,31 +8526,31 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8561,13 +8569,13 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8594,13 +8602,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8618,7 +8626,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8633,31 +8641,31 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8676,17 +8684,15 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8741,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8750,31 +8756,31 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8793,16 +8799,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>203</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8828,11 +8834,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8850,7 +8858,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8865,38 +8873,38 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8908,16 +8916,16 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>467</v>
+        <v>205</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8943,13 +8951,11 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8967,13 +8973,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8982,16 +8988,16 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -8999,14 +9005,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9025,15 +9031,17 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>203</v>
+        <v>469</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9058,13 +9066,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -9082,7 +9090,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9097,16 +9105,16 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9114,10 +9122,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9140,13 +9148,13 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>481</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9173,13 +9181,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9197,7 +9205,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9218,10 +9226,10 @@
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>77</v>
@@ -9229,10 +9237,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9255,17 +9263,15 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>203</v>
+        <v>483</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9290,13 +9296,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9314,7 +9320,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9329,16 +9335,16 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>77</v>
@@ -9346,10 +9352,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9372,16 +9378,16 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>495</v>
+        <v>205</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9407,13 +9413,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9431,7 +9437,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9446,16 +9452,16 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>77</v>
@@ -9463,10 +9469,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9486,18 +9492,20 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9546,7 +9554,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9561,16 +9569,16 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>495</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>77</v>
@@ -9578,14 +9586,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9604,17 +9612,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9663,7 +9669,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9678,13 +9684,13 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9695,14 +9701,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>512</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9718,19 +9724,19 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9780,7 +9786,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9795,13 +9801,13 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9812,14 +9818,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>526</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9838,20 +9844,18 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>203</v>
+        <v>521</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9875,13 +9879,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9899,7 +9903,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9917,28 +9921,28 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>534</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>528</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9954,19 +9958,23 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>536</v>
+        <v>205</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>46</v>
+        <v>529</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9990,13 +9998,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -10014,7 +10022,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10029,27 +10037,27 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>354</v>
+        <v>525</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10060,7 +10068,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -10069,16 +10077,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>182</v>
+        <v>538</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>542</v>
+        <v>46</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10129,13 +10137,13 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
@@ -10144,27 +10152,27 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10175,7 +10183,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10184,20 +10192,18 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>546</v>
+        <v>184</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10246,13 +10252,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -10261,23 +10267,140 @@
         <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="N71" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO70" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO70">
+  <autoFilter ref="A1:AO71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10287,7 +10410,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="557">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -519,6 +519,16 @@
   </si>
   <si>
     <t>vurdertDato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-vurdert-dato}
+</t>
+  </si>
+  <si>
+    <t>Vurdert dato</t>
+  </si>
+  <si>
+    <t>Brukes når forespørsel er vurdert og/eller henvisning er avvist/avsluttet.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:statusReason</t>
@@ -3657,13 +3667,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3746,13 +3756,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3774,13 +3784,13 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3863,14 +3873,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3892,16 +3902,16 @@
         <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3950,7 +3960,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3982,10 +3992,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4008,16 +4018,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4067,7 +4077,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4082,27 +4092,27 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4125,13 +4135,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4182,7 +4192,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4203,7 +4213,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4214,14 +4224,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4243,13 +4253,13 @@
         <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4290,7 +4300,7 @@
         <v>134</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
@@ -4299,7 +4309,7 @@
         <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4320,7 +4330,7 @@
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4331,10 +4341,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4360,16 +4370,16 @@
         <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4394,13 +4404,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4418,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4439,7 +4449,7 @@
         <v>129</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4450,10 +4460,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4476,19 +4486,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4513,13 +4523,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4547,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4555,10 +4565,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4569,10 +4579,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4598,16 +4608,16 @@
         <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4620,7 +4630,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4656,7 +4666,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4674,10 +4684,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4688,10 +4698,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4714,16 +4724,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4737,7 +4747,7 @@
         <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -4773,7 +4783,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4791,10 +4801,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4805,10 +4815,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4831,13 +4841,13 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4888,7 +4898,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4906,10 +4916,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4920,10 +4930,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4946,16 +4956,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5005,7 +5015,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -5023,10 +5033,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5037,10 +5047,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5063,16 +5073,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5122,7 +5132,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5137,13 +5147,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5154,10 +5164,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5183,13 +5193,13 @@
         <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5239,7 +5249,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5254,13 +5264,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5271,14 +5281,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5297,13 +5307,13 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5354,7 +5364,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5369,13 +5379,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5386,14 +5396,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5412,13 +5422,13 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5469,7 +5479,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5484,13 +5494,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5501,14 +5511,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5527,19 +5537,19 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5588,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5603,13 +5613,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5620,10 +5630,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5649,13 +5659,13 @@
         <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5666,7 +5676,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5681,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5705,7 +5715,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -5720,27 +5730,27 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5766,13 +5776,13 @@
         <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5783,7 +5793,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5798,13 +5808,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5822,7 +5832,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5837,16 +5847,16 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>77</v>
@@ -5854,10 +5864,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5880,19 +5890,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5921,7 +5931,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5939,7 +5949,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5957,13 +5967,13 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>77</v>
@@ -5971,10 +5981,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6000,10 +6010,10 @@
         <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6011,52 +6021,52 @@
         <v>77</v>
       </c>
       <c r="Q34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6068,19 +6078,19 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>77</v>
@@ -6088,10 +6098,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6114,70 +6124,70 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -6192,13 +6202,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6209,14 +6219,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6235,16 +6245,16 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6270,13 +6280,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6294,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6309,31 +6319,31 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6352,16 +6362,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6387,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6411,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6420,7 +6430,7 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>98</v>
@@ -6429,24 +6439,24 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6469,17 +6479,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6528,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6546,10 +6556,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6560,10 +6570,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6586,13 +6596,13 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6643,7 +6653,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -6658,27 +6668,27 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6701,13 +6711,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6758,7 +6768,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6779,7 +6789,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6790,14 +6800,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6819,13 +6829,13 @@
         <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6866,7 +6876,7 @@
         <v>134</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
@@ -6875,7 +6885,7 @@
         <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6896,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6907,10 +6917,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6933,16 +6943,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6992,7 +7002,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -7001,7 +7011,7 @@
         <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>98</v>
@@ -7024,10 +7034,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7053,13 +7063,13 @@
         <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7070,7 +7080,7 @@
         <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>77</v>
@@ -7085,13 +7095,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -7109,7 +7119,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7141,10 +7151,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7167,16 +7177,16 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7226,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7247,7 +7257,7 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7258,10 +7268,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7284,13 +7294,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7341,7 +7351,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7362,7 +7372,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7373,14 +7383,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7402,13 +7412,13 @@
         <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7449,7 +7459,7 @@
         <v>134</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
@@ -7458,7 +7468,7 @@
         <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7479,7 +7489,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7490,10 +7500,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7519,16 +7529,16 @@
         <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7553,13 +7563,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7577,7 +7587,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7598,7 +7608,7 @@
         <v>129</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7609,10 +7619,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7635,19 +7645,19 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7672,13 +7682,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7696,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7714,10 +7724,10 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7728,10 +7738,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7757,16 +7767,16 @@
         <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7779,7 +7789,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7815,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7827,16 +7837,16 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7847,10 +7857,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7873,16 +7883,16 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7896,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7932,7 +7942,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7950,10 +7960,10 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7964,10 +7974,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7990,13 +8000,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8047,7 +8057,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8065,10 +8075,10 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8079,10 +8089,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8105,16 +8115,16 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8164,7 +8174,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8182,10 +8192,10 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8196,10 +8206,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8222,16 +8232,16 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8281,7 +8291,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8313,14 +8323,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8339,13 +8349,13 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8396,7 +8406,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8411,31 +8421,31 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8454,13 +8464,13 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8511,7 +8521,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8526,27 +8536,27 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8569,13 +8579,13 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8602,13 +8612,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8626,7 +8636,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8647,25 +8657,25 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8684,13 +8694,13 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8741,7 +8751,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8756,31 +8766,31 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8799,16 +8809,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8858,7 +8868,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8873,31 +8883,31 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8916,16 +8926,16 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8951,11 +8961,11 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8973,7 +8983,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8988,16 +8998,16 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -9005,14 +9015,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9031,16 +9041,16 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9090,7 +9100,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9105,16 +9115,16 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9122,10 +9132,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9148,13 +9158,13 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9181,31 +9191,31 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9226,10 +9236,10 @@
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>77</v>
@@ -9237,10 +9247,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9263,13 +9273,13 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9320,7 +9330,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9341,10 +9351,10 @@
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>77</v>
@@ -9352,10 +9362,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9378,16 +9388,16 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9413,13 +9423,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9437,7 +9447,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9452,16 +9462,16 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>77</v>
@@ -9469,10 +9479,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9495,16 +9505,16 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9554,7 +9564,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9569,16 +9579,16 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>77</v>
@@ -9586,10 +9596,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9612,13 +9622,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9669,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9684,13 +9694,13 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9701,14 +9711,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9727,16 +9737,16 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9786,7 +9796,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9801,13 +9811,13 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9818,10 +9828,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9844,16 +9854,16 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9903,7 +9913,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9921,10 +9931,10 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9935,14 +9945,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9961,19 +9971,19 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9998,13 +10008,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -10022,7 +10032,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10040,24 +10050,24 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10080,13 +10090,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10137,7 +10147,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10152,27 +10162,27 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10195,13 +10205,13 @@
         <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10252,7 +10262,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10270,10 +10280,10 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10284,10 +10294,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10310,16 +10320,16 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10369,7 +10379,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10384,13 +10394,13 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-serviceRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1026,7 +1026,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-PriorityUrgentOrRoutine:priority må være enten 'routine' eller 'urgent'. {value='routine' or value='urgent'}</t>
+PriorityUrgentOrRoutineOrStat:priority må være enten 'routine','urgent' eller 'stat'. Stat brukes for Øhjelp henvisninger. {value='routine' or value='urgent' or value='stat'}</t>
   </si>
   <si>
     <t>Request.priority</t>
